--- a/data/financial_statements/soci/CFG.xlsx
+++ b/data/financial_statements/soci/CFG.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -113,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,1677 +581,1716 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AN31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:40">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>2091000000</v>
+        <v>2757000000</v>
       </c>
       <c r="C2">
-        <v>2016000000</v>
+        <v>2481000000</v>
       </c>
       <c r="D2">
-        <v>1622000000</v>
+        <v>2120000000</v>
       </c>
       <c r="E2">
+        <v>1711000000</v>
+      </c>
+      <c r="F2">
+        <v>1796000000</v>
+      </c>
+      <c r="G2">
+        <v>1736000000</v>
+      </c>
+      <c r="H2">
+        <v>1696000000</v>
+      </c>
+      <c r="I2">
+        <v>1758000000</v>
+      </c>
+      <c r="J2">
+        <v>1827000000</v>
+      </c>
+      <c r="K2">
+        <v>1934000000</v>
+      </c>
+      <c r="L2">
+        <v>1940000000</v>
+      </c>
+      <c r="M2">
+        <v>1975000000</v>
+      </c>
+      <c r="N2">
+        <v>1995000000</v>
+      </c>
+      <c r="O2">
+        <v>2031000000</v>
+      </c>
+      <c r="P2">
+        <v>2042000000</v>
+      </c>
+      <c r="Q2">
+        <v>1998000000</v>
+      </c>
+      <c r="R2">
+        <v>1963000000</v>
+      </c>
+      <c r="S2">
+        <v>1893000000</v>
+      </c>
+      <c r="T2">
+        <v>1799000000</v>
+      </c>
+      <c r="U2">
         <v>1699000000</v>
       </c>
-      <c r="F2">
-        <v>1618000000</v>
-      </c>
-      <c r="G2">
-        <v>1696000000</v>
-      </c>
-      <c r="H2">
-        <v>1758000000</v>
-      </c>
-      <c r="I2">
-        <v>1827000000</v>
-      </c>
-      <c r="J2">
-        <v>1934000000</v>
-      </c>
-      <c r="K2">
-        <v>1940000000</v>
-      </c>
-      <c r="L2">
-        <v>1975000000</v>
-      </c>
-      <c r="M2">
-        <v>1995000000</v>
-      </c>
-      <c r="N2">
-        <v>2031000000</v>
-      </c>
-      <c r="O2">
-        <v>2042000000</v>
-      </c>
-      <c r="P2">
-        <v>1998000000</v>
-      </c>
-      <c r="Q2">
-        <v>1963000000</v>
-      </c>
-      <c r="R2">
-        <v>1893000000</v>
-      </c>
-      <c r="S2">
-        <v>1799000000</v>
-      </c>
-      <c r="T2">
-        <v>1699000000</v>
-      </c>
-      <c r="U2">
+      <c r="V2">
         <v>1695000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1645000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1575000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1539000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1499000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1514000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1401000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1349000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1348000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1327000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1312000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1289000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1280000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1254000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1557000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1251000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1256000000</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:40">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.2923</v>
+        <v>0.5351</v>
       </c>
       <c r="C3">
-        <v>0.1887</v>
+        <v>0.4291</v>
       </c>
       <c r="D3">
-        <v>-0.0774</v>
+        <v>0.25</v>
       </c>
       <c r="E3">
-        <v>-0.0701</v>
+        <v>-0.0267</v>
       </c>
       <c r="F3">
-        <v>-0.1634</v>
+        <v>-0.017</v>
       </c>
       <c r="G3">
+        <v>-0.1024</v>
+      </c>
+      <c r="H3">
         <v>-0.1258</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.1099</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.0842</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.0478</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.05</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.0115</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.0163</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.07290000000000001</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.1351</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.176</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.1581</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1508</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.1422</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.104</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.1308</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.08649999999999999</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.1242</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.1408</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.112</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.1409</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.0678</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0465</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.0531</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.0582</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.1574</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0304</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0191</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-0.055</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.1867</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.0295</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-0.0188</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:40">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
+        <v>557000000</v>
+      </c>
+      <c r="C4">
         <v>304000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>121000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>66000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>76000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>77000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>87000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>99000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>120000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>143000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>190000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>318000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>358000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>393000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>414000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>410000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>370000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>329000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>290000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>237000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>211000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>202000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>179000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>155000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>136000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>134000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>123000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>115000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>116000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>118000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>112000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>106000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>101000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>93000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>84000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>85000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>103000000</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:40">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
+        <v>2200000000</v>
+      </c>
+      <c r="C5">
         <v>2177000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1999000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1645000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1720000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1659000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1609000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1659000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1707000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1791000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1750000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1657000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1637000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1638000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1628000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1588000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1593000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1564000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1509000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1462000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1484000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1443000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1396000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1384000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1363000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>1380000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>1278000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>1234000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>1232000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1209000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1200000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1183000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>1179000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>1161000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>1473000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1166000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1153000000</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:40">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
+        <v>1372000000</v>
+      </c>
+      <c r="C6">
         <v>1364000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1521000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1109000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1036000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>978000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>778000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>878000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1136000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1416000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1443000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1612000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1096000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1074000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1048000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1022000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1036000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>988000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>960000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>961000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1115000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>885000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>889000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>906000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>905000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>907000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>876000000</v>
-      </c>
-      <c r="AB6">
-        <v>863000000</v>
       </c>
       <c r="AC6">
         <v>863000000</v>
       </c>
       <c r="AD6">
+        <v>863000000</v>
+      </c>
+      <c r="AE6">
         <v>839000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>881000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>832000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>853000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>849000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>964000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>900000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>907000000</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:40">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
+        <v>828000000</v>
+      </c>
+      <c r="C7">
         <v>813000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>478000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>536000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>684000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>681000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>831000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>781000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>571000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>375000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>307000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>45000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>541000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>564000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>580000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>566000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>557000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>576000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>549000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>501000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>369000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>513000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>462000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>434000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>414000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>427000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>361000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>332000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>331000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>335000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>282000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>315000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>283000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>274000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>476000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>235000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>220000000</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:40">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
+        <v>828000000</v>
+      </c>
+      <c r="C8">
         <v>813000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>478000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>536000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>684000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>681000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>831000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>781000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>571000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>375000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>307000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>45000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>541000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>564000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>580000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>566000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>557000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>576000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>549000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>501000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>503000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>513000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>462000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>434000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>414000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>427000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>361000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>332000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>331000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>335000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>282000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>315000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>283000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>274000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>476000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>235000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>220000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:40">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
+        <v>175000000</v>
+      </c>
+      <c r="C9">
         <v>177000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>114000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>116000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>154000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>151000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>183000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>170000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>115000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>61000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>54000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>11000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>91000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>115000000</v>
-      </c>
-      <c r="O9">
-        <v>127000000</v>
       </c>
       <c r="P9">
         <v>127000000</v>
       </c>
       <c r="Q9">
+        <v>127000000</v>
+      </c>
+      <c r="R9">
         <v>92000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>133000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>124000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>113000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-163000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>165000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>144000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>114000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>132000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>130000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>118000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>109000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>110000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>115000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>92000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>106000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>86000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>85000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>163000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>69000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>76000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:40">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
+        <v>653000000</v>
+      </c>
+      <c r="C10">
         <v>636000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>364000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>420000000</v>
-      </c>
-      <c r="E10">
-        <v>530000000</v>
       </c>
       <c r="F10">
         <v>530000000</v>
       </c>
       <c r="G10">
+        <v>530000000</v>
+      </c>
+      <c r="H10">
         <v>648000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>611000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>456000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>314000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>253000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>34000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>450000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>449000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>453000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>439000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>465000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>443000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>425000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>388000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>666000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>348000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>318000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>320000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>282000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>297000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>243000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>223000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>221000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>220000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>190000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>209000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>197000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>189000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>313000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>166000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>144000000</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM11">
+    <row r="11" spans="1:40">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:40">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
+        <v>32000000</v>
+      </c>
+      <c r="C12">
         <v>25000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>32000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>24000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>32000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>26000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>32000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>23000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>32000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>25000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>28000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>22000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>23000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>17000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>18000000</v>
-      </c>
-      <c r="P12">
-        <v>15000000</v>
       </c>
       <c r="Q12">
         <v>15000000</v>
       </c>
       <c r="R12">
+        <v>15000000</v>
+      </c>
+      <c r="S12">
         <v>7000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>7000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>7000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>7000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>7000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>7000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>7000000</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:40">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
+        <v>621000000</v>
+      </c>
+      <c r="C13">
         <v>611000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>332000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>396000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>498000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>504000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>616000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>588000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>424000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>289000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>225000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>12000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>427000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>432000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>435000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>424000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>450000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>436000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>425000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>381000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>666000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>341000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>318000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>313000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>282000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>290000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>243000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>216000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>221000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>213000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>190000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>209000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>197000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>189000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>313000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>166000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>144000000</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:40">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
+        <v>1.25</v>
+      </c>
+      <c r="C14">
         <v>1.23</v>
       </c>
-      <c r="C14">
+      <c r="D14">
+        <v>0.68</v>
+      </c>
+      <c r="E14">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F14">
+        <v>1.17</v>
+      </c>
+      <c r="G14">
+        <v>1.18</v>
+      </c>
+      <c r="H14">
+        <v>1.45</v>
+      </c>
+      <c r="I14">
+        <v>1.38</v>
+      </c>
+      <c r="J14">
+        <v>0.99</v>
+      </c>
+      <c r="K14">
+        <v>0.68</v>
+      </c>
+      <c r="L14">
+        <v>0.53</v>
+      </c>
+      <c r="M14">
+        <v>0.03</v>
+      </c>
+      <c r="N14">
+        <v>0.98</v>
+      </c>
+      <c r="O14">
+        <v>0.97</v>
+      </c>
+      <c r="P14">
+        <v>0.95</v>
+      </c>
+      <c r="Q14">
+        <v>0.92</v>
+      </c>
+      <c r="R14">
+        <v>0.96</v>
+      </c>
+      <c r="S14">
+        <v>0.92</v>
+      </c>
+      <c r="T14">
+        <v>0.88</v>
+      </c>
+      <c r="U14">
+        <v>0.78</v>
+      </c>
+      <c r="V14">
+        <v>1.35</v>
+      </c>
+      <c r="W14">
+        <v>0.68</v>
+      </c>
+      <c r="X14">
+        <v>0.63</v>
+      </c>
+      <c r="Y14">
+        <v>0.61</v>
+      </c>
+      <c r="Z14">
+        <v>0.55</v>
+      </c>
+      <c r="AA14">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB14">
+        <v>0.46</v>
+      </c>
+      <c r="AC14">
+        <v>0.41</v>
+      </c>
+      <c r="AD14">
+        <v>0.42</v>
+      </c>
+      <c r="AE14">
+        <v>0.4</v>
+      </c>
+      <c r="AF14">
+        <v>0.35</v>
+      </c>
+      <c r="AG14">
+        <v>0.38</v>
+      </c>
+      <c r="AH14">
+        <v>0.36</v>
+      </c>
+      <c r="AI14">
+        <v>0.34</v>
+      </c>
+      <c r="AJ14">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AK14">
+        <v>0.3</v>
+      </c>
+      <c r="AM14">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>1.23</v>
+      </c>
+      <c r="D15">
         <v>0.67</v>
       </c>
-      <c r="D14">
+      <c r="E15">
         <v>0.93</v>
       </c>
-      <c r="E14">
+      <c r="F15">
         <v>1.17</v>
       </c>
-      <c r="F14">
+      <c r="G15">
         <v>1.18</v>
       </c>
-      <c r="G14">
-        <v>1.45</v>
-      </c>
-      <c r="H14">
-        <v>1.38</v>
-      </c>
-      <c r="I14">
+      <c r="H15">
+        <v>1.44</v>
+      </c>
+      <c r="I15">
+        <v>1.37</v>
+      </c>
+      <c r="J15">
         <v>0.99</v>
       </c>
-      <c r="J14">
+      <c r="K15">
         <v>0.68</v>
       </c>
-      <c r="K14">
+      <c r="L15">
         <v>0.53</v>
       </c>
-      <c r="L14">
+      <c r="M15">
         <v>0.03</v>
       </c>
-      <c r="M14">
+      <c r="N15">
         <v>0.98</v>
       </c>
-      <c r="N14">
+      <c r="O15">
         <v>0.97</v>
       </c>
-      <c r="O14">
+      <c r="P15">
         <v>0.95</v>
       </c>
-      <c r="P14">
+      <c r="Q15">
         <v>0.92</v>
       </c>
-      <c r="Q14">
+      <c r="R15">
         <v>0.96</v>
       </c>
-      <c r="R14">
-        <v>0.92</v>
-      </c>
-      <c r="S14">
+      <c r="S15">
+        <v>0.91</v>
+      </c>
+      <c r="T15">
         <v>0.88</v>
       </c>
-      <c r="T14">
+      <c r="U15">
         <v>0.78</v>
       </c>
-      <c r="U14">
+      <c r="V15">
         <v>1.35</v>
       </c>
-      <c r="V14">
+      <c r="W15">
         <v>0.68</v>
       </c>
-      <c r="W14">
+      <c r="X15">
         <v>0.63</v>
       </c>
-      <c r="X14">
+      <c r="Y15">
         <v>0.61</v>
       </c>
-      <c r="Y14">
+      <c r="Z15">
         <v>0.55</v>
       </c>
-      <c r="Z14">
+      <c r="AA15">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AA14">
+      <c r="AB15">
         <v>0.46</v>
       </c>
-      <c r="AB14">
+      <c r="AC15">
         <v>0.41</v>
       </c>
-      <c r="AC14">
+      <c r="AD15">
         <v>0.42</v>
       </c>
-      <c r="AD14">
+      <c r="AE15">
         <v>0.4</v>
       </c>
-      <c r="AE14">
+      <c r="AF15">
         <v>0.35</v>
       </c>
-      <c r="AF14">
+      <c r="AG15">
         <v>0.38</v>
       </c>
-      <c r="AG14">
+      <c r="AH15">
         <v>0.36</v>
       </c>
-      <c r="AH14">
+      <c r="AI15">
         <v>0.34</v>
       </c>
-      <c r="AI14">
+      <c r="AJ15">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AJ14">
+      <c r="AK15">
         <v>0.3</v>
       </c>
-      <c r="AL14">
+      <c r="AM15">
         <v>0.26</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1.23</v>
-      </c>
-      <c r="C15">
-        <v>0.67</v>
-      </c>
-      <c r="D15">
-        <v>0.93</v>
-      </c>
-      <c r="E15">
-        <v>1.17</v>
-      </c>
-      <c r="F15">
-        <v>1.18</v>
-      </c>
-      <c r="G15">
-        <v>1.44</v>
-      </c>
-      <c r="H15">
-        <v>1.37</v>
-      </c>
-      <c r="I15">
-        <v>0.99</v>
-      </c>
-      <c r="J15">
-        <v>0.68</v>
-      </c>
-      <c r="K15">
-        <v>0.53</v>
-      </c>
-      <c r="L15">
-        <v>0.03</v>
-      </c>
-      <c r="M15">
-        <v>0.98</v>
-      </c>
-      <c r="N15">
-        <v>0.97</v>
-      </c>
-      <c r="O15">
-        <v>0.95</v>
-      </c>
-      <c r="P15">
-        <v>0.92</v>
-      </c>
-      <c r="Q15">
-        <v>0.96</v>
-      </c>
-      <c r="R15">
-        <v>0.91</v>
-      </c>
-      <c r="S15">
-        <v>0.88</v>
-      </c>
-      <c r="T15">
-        <v>0.78</v>
-      </c>
-      <c r="U15">
-        <v>1.35</v>
-      </c>
-      <c r="V15">
-        <v>0.68</v>
-      </c>
-      <c r="W15">
-        <v>0.63</v>
-      </c>
-      <c r="X15">
-        <v>0.61</v>
-      </c>
-      <c r="Y15">
-        <v>0.55</v>
-      </c>
-      <c r="Z15">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AA15">
-        <v>0.46</v>
-      </c>
-      <c r="AB15">
-        <v>0.41</v>
-      </c>
-      <c r="AC15">
-        <v>0.42</v>
-      </c>
-      <c r="AD15">
-        <v>0.4</v>
-      </c>
-      <c r="AE15">
-        <v>0.35</v>
-      </c>
-      <c r="AF15">
-        <v>0.38</v>
-      </c>
-      <c r="AG15">
-        <v>0.36</v>
-      </c>
-      <c r="AH15">
-        <v>0.34</v>
-      </c>
-      <c r="AI15">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AJ15">
-        <v>0.3</v>
-      </c>
-      <c r="AL15">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:40">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>496000000</v>
+        <v>493294000</v>
       </c>
       <c r="C16">
-        <v>491000000</v>
+        <v>495651000</v>
       </c>
       <c r="D16">
-        <v>422000000</v>
+        <v>491497000</v>
       </c>
       <c r="E16">
-        <v>425000000</v>
+        <v>422402000</v>
       </c>
       <c r="F16">
-        <v>426000000</v>
+        <v>425669000</v>
       </c>
       <c r="G16">
+        <v>426087000</v>
+      </c>
+      <c r="H16">
         <v>425949000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>425954000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>427063000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>426846000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>426613000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>427718000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>449731000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>445704000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>458154000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>460713000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>478822000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>475957000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>484744000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>487501000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>502157000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>500861000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>506372000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>509451000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>522093000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>519459000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>528968000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>528071000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>535600000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>530985000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>537729000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>546291000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>556674000</v>
-      </c>
-      <c r="AH16">
-        <v>559998000</v>
       </c>
       <c r="AI16">
         <v>559998000</v>
@@ -2148,239 +2298,248 @@
       <c r="AJ16">
         <v>559998000</v>
       </c>
-      <c r="AL16">
+      <c r="AK16">
         <v>559998000</v>
       </c>
+      <c r="AM16">
+        <v>559998000</v>
+      </c>
     </row>
-    <row r="17" spans="1:39">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:40">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>497000000</v>
+        <v>495478000</v>
       </c>
       <c r="C17">
-        <v>493000000</v>
+        <v>497478000</v>
       </c>
       <c r="D17">
-        <v>425000000</v>
+        <v>493296000</v>
       </c>
       <c r="E17">
-        <v>427000000</v>
+        <v>424671000</v>
       </c>
       <c r="F17">
-        <v>428000000</v>
+        <v>427436000</v>
       </c>
       <c r="G17">
+        <v>427841000</v>
+      </c>
+      <c r="H17">
         <v>427562000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>427881000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>428158000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>427992000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>427567000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>429389000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>451214000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>447135000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>459304000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>462521000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>480431000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>477600000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>486142000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>489267000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>503685000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>502157000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>507414000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>511348000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>523931000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>521122000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>530365000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>530446000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>538221000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>533398000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>539909000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>549799000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>557725000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>560244000</v>
-      </c>
-      <c r="AI17">
-        <v>559998000</v>
       </c>
       <c r="AJ17">
         <v>559998000</v>
       </c>
-      <c r="AL17">
+      <c r="AK17">
         <v>559998000</v>
       </c>
+      <c r="AM17">
+        <v>559998000</v>
+      </c>
     </row>
-    <row r="18" spans="1:39">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:40">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>1.0411</v>
+        <v>0.798</v>
       </c>
       <c r="C18">
-        <v>0.9916</v>
+        <v>0.8774999999999999</v>
       </c>
       <c r="D18">
-        <v>1.0142</v>
+        <v>0.9429</v>
       </c>
       <c r="E18">
-        <v>1.0124</v>
+        <v>0.9614</v>
       </c>
       <c r="F18">
-        <v>1.0253</v>
+        <v>0.9577</v>
       </c>
       <c r="G18">
+        <v>0.9556</v>
+      </c>
+      <c r="H18">
         <v>0.9487</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.9437</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.9343</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.9261</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.9021</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.839</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.8206</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.8065</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.7973</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.7948</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.8115</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.8262</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.8388</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.8605</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.8754999999999999</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.8772</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.8863</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.8993</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0.9093</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.9115</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.9122</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.9147999999999999</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.9139</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.9111</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.9146</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>0.9177999999999999</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.9211</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>0.9258</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.9461000000000001</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.9321</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>0.918</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:40">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2487,1044 +2646,1071 @@
       <c r="AJ19">
         <v>0</v>
       </c>
-      <c r="AL19">
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:40">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>0.3888</v>
+        <v>0.3003</v>
       </c>
       <c r="C20">
-        <v>0.2371</v>
+        <v>0.3277</v>
       </c>
       <c r="D20">
-        <v>0.3305</v>
+        <v>0.2255</v>
       </c>
       <c r="E20">
-        <v>0.4026</v>
+        <v>0.3133</v>
       </c>
       <c r="F20">
-        <v>0.4209</v>
+        <v>0.3808</v>
       </c>
       <c r="G20">
+        <v>0.3923</v>
+      </c>
+      <c r="H20">
         <v>0.49</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.4443</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.3125</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.1939</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.1582</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.0228</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.2712</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.2777</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.284</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.2833</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.2837</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.3043</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.3052</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.2949</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.2968</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.3119</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.2933</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.282</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.2762</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.282</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.2577</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.2461</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.2455</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.2524</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.2149</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.2444</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.2211</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.2185</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.3057</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.1878</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.1752</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:40">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0.2922</v>
+        <v>0.2252</v>
       </c>
       <c r="C21">
-        <v>0.1647</v>
+        <v>0.2463</v>
       </c>
       <c r="D21">
-        <v>0.2441</v>
+        <v>0.1566</v>
       </c>
       <c r="E21">
-        <v>0.2931</v>
+        <v>0.2314</v>
       </c>
       <c r="F21">
-        <v>0.3115</v>
+        <v>0.2773</v>
       </c>
       <c r="G21">
+        <v>0.2903</v>
+      </c>
+      <c r="H21">
         <v>0.3632</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.3345</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.2321</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.1494</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.116</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.0061</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.214</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.2127</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.213</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.2122</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.2292</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.2303</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.2362</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.2242</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.3929</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.2073</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.2019</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.2034</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.1881</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.1915</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.1734</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.1601</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.1639</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.1605</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.1448</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.1621</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.1539</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.1507</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.201</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.1327</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.1146</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:40">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
+        <v>653000000</v>
+      </c>
+      <c r="C22">
         <v>636000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>364000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>420000000</v>
-      </c>
-      <c r="E22">
-        <v>530000000</v>
       </c>
       <c r="F22">
         <v>530000000</v>
       </c>
       <c r="G22">
+        <v>530000000</v>
+      </c>
+      <c r="H22">
         <v>648000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>611000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>456000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>314000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>253000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>34000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>450000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>449000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>453000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>439000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>465000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>443000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>425000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>388000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>666000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>348000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>318000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>320000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>282000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>297000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>243000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>223000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>221000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>220000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>190000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>209000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>197000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>189000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>313000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>166000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>144000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM23">
+    <row r="23" spans="1:40">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:40">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
+        <v>653000000</v>
+      </c>
+      <c r="C24">
         <v>636000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>364000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>420000000</v>
-      </c>
-      <c r="E24">
-        <v>530000000</v>
       </c>
       <c r="F24">
         <v>530000000</v>
       </c>
       <c r="G24">
+        <v>530000000</v>
+      </c>
+      <c r="H24">
         <v>648000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>611000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>456000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>314000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>253000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>34000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>450000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>449000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>453000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>439000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>465000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>443000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>425000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>388000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>666000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>348000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>318000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>320000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>282000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>297000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>243000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>223000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>221000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>220000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>190000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>209000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>197000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>189000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>313000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>166000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>144000000</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:40">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
+        <v>1.3238</v>
+      </c>
+      <c r="C25">
         <v>1.2832</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.7406</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.9943</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1.2483</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1.2439</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.5213</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1.4344</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1.0669</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.7356</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.593</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.0795</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1.0334</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1.0074</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.9888</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.9529</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>0.9908</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.9308</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.8768</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.7959000000000001</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1.3389</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.6948</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.628</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>0.6281</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.5481</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.5717</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>0.4594</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>0.4223</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>0.4181</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.4143</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>0.3533</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>0.3826</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.361</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>0.3375</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.5589</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>0.2964</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>0.2571</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:40">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
+        <v>1.3179</v>
+      </c>
+      <c r="C26">
         <v>1.2784</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.7379</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.989</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1.2431</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1.2388</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1.5156</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1.428</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1.0642</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.7337</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.5917</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.07920000000000001</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1.0297</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1.0042</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>0.9863</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>0.9491000000000001</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.9874000000000001</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>0.9276</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.8742</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.793</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1.3343</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.6929999999999999</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.6267</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>0.6258</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>0.546</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.5699</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>0.4582</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>0.4204</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>0.4162</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.4125</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>0.3519</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>0.3801</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0.3582</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>0.3374</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.5589</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>0.2964</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.2571</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:40">
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
+        <v>1.3238</v>
+      </c>
+      <c r="C27">
         <v>1.2832</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.7406</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.9943</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1.2483</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.2439</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1.5213</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.4344</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1.0669</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.7356</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.593</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.0795</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1.0334</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1.0074</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0.9888</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>0.9529</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>0.9908</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>0.9308</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>0.8768</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>0.7959000000000001</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>1.3389</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.6948</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.628</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>0.6281</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>0.5481</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>0.5717</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>0.4594</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>0.4223</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>0.4181</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.4143</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>0.3533</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>0.3826</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.361</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>0.3375</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0.5589</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>0.2964</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>0.2571</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:40">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
+        <v>1.3179</v>
+      </c>
+      <c r="C28">
         <v>1.2784</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.7379</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.989</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1.2431</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.2388</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.5156</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1.428</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1.0642</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.7337</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.5917</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.07920000000000001</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1.0297</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1.0042</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.9863</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>0.9491000000000001</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0.9874000000000001</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>0.9276</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>0.8742</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.793</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>1.3343</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.6929999999999999</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.6267</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.6258</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.546</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.5699</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.4582</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>0.4204</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.4162</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.4125</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.3519</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>0.3801</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.3582</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.3374</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0.5589</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.2964</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.2571</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:40">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29">
         <v>497478000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>493296000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>424671000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>426868000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>427800000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>427600000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>427881000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>428881000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>428000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>427567000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>429389000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>436501000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>447135000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>459304000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>462521000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>469103000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>477600000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>486142000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>489300000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>493788000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>502157000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>507414000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>511300000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>513900000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>521100000</v>
-      </c>
-      <c r="AA29">
-        <v>530400000</v>
       </c>
       <c r="AB29">
         <v>530400000</v>
       </c>
       <c r="AC29">
+        <v>530400000</v>
+      </c>
+      <c r="AD29">
         <v>530300000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>533400000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>539900000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>549799000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>550676000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>560244000</v>
-      </c>
-      <c r="AI29">
-        <v>559998000</v>
       </c>
       <c r="AJ29">
         <v>559998000</v>
       </c>
-      <c r="AL29">
+      <c r="AK29">
         <v>559998000</v>
       </c>
+      <c r="AM29">
+        <v>559998000</v>
+      </c>
     </row>
-    <row r="30" spans="1:39">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:40">
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3631,126 +3817,132 @@
       <c r="AJ30">
         <v>0</v>
       </c>
-      <c r="AL30">
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:40">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>1.3467</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>-1.0903</v>
+        <v>1.2092</v>
       </c>
       <c r="D31">
-        <v>0.4044</v>
+        <v>-0.8849</v>
       </c>
       <c r="E31">
-        <v>0.3785</v>
+        <v>0.9082</v>
       </c>
       <c r="F31">
-        <v>0.6051</v>
+        <v>0.6153</v>
       </c>
       <c r="G31">
+        <v>0.7373</v>
+      </c>
+      <c r="H31">
         <v>0.342</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-0.3925</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.474</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.3402</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-0.0443</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-0.6719000000000001</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.3644</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>0.1935</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.0514</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>0.2362</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.2853</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-0.1099</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0.3952</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>0.4144</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.2555</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.555</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-0.2006</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.5543</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0.1948</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.3263</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.2355</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.2772</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>0.2953</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.2381</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>0.3178</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>0.076</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.143</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.1483</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.2062</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.5596</v>
       </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
       <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
         <v>0.1919</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0</v>
       </c>
     </row>
